--- a/terms-source/terms-mce-v2b.xlsx
+++ b/terms-source/terms-mce-v2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/LDA-mixed-terms/terms-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D994A3-1577-CF4A-ADD1-85215E07CA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54380CA-A523-8A4F-BD16-1361B048E944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10300" yWindow="4140" windowWidth="27760" windowHeight="16940" xr2:uid="{36429BC1-CAC8-7B4F-BA9B-FFEF0386B33D}"/>
   </bookViews>
@@ -2946,11 +2946,11 @@
   <dimension ref="A1:N826"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="6440" ySplit="3720" topLeftCell="D821" activePane="topRight"/>
+      <pane xSplit="6440" ySplit="3720" topLeftCell="A821" activePane="bottomRight"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="M2" sqref="M2"/>
       <selection pane="bottomLeft" activeCell="C825" sqref="C825"/>
-      <selection pane="bottomRight" activeCell="M827" sqref="M827"/>
+      <selection pane="bottomRight" activeCell="A826" sqref="A826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -37527,6 +37527,30 @@
       </c>
     </row>
     <row r="826" spans="1:13">
+      <c r="C826">
+        <f t="shared" ref="C826:H826" si="13">SUM(C2:C823)</f>
+        <v>0</v>
+      </c>
+      <c r="D826">
+        <f t="shared" si="13"/>
+        <v>822</v>
+      </c>
+      <c r="E826">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F826">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G826">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H826">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
       <c r="M826">
         <f>SUM(M2:M823)</f>
         <v>500</v>

--- a/terms-source/terms-mce-v2b.xlsx
+++ b/terms-source/terms-mce-v2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/LDA-mixed-terms/terms-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37BF895-1384-974A-9D08-83A5D148D2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5612F9E-B21B-1745-AED9-0E7A8A0E23AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5380" yWindow="2320" windowWidth="27760" windowHeight="16940" xr2:uid="{36429BC1-CAC8-7B4F-BA9B-FFEF0386B33D}"/>
   </bookViews>
@@ -2639,19 +2639,19 @@
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{1D323F1F-B5DA-1F44-BC9A-0D26B90E2FD0}" name="local.id"/>
     <tableColumn id="2" xr3:uid="{FB2EC936-B763-6045-A037-789DA3D27073}" name="word"/>
-    <tableColumn id="15" xr3:uid="{80CAD8EA-FA6D-B048-B663-9458481B02DC}" name="unique" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{80CAD8EA-FA6D-B048-B663-9458481B02DC}" name="unique" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{81808801-CF8C-D94A-8B49-6EE03511BEC8}" name="medical"/>
     <tableColumn id="7" xr3:uid="{A61EC694-C4D2-0649-B8C0-FD9C16DE2EDD}" name="mce"/>
     <tableColumn id="8" xr3:uid="{DB4D1746-5886-EC4C-972B-03A26F0D3F8B}" name="economic"/>
     <tableColumn id="9" xr3:uid="{4BE527DE-E832-B247-8547-511C0FBF4C5A}" name="juridical"/>
     <tableColumn id="10" xr3:uid="{C4234EE2-66DF-2C40-9C58-D6F9BAE8B5AA}" name="publishing"/>
     <tableColumn id="12" xr3:uid="{F627D61F-A9C1-C746-A0F8-E1744B785B86}" name="cooking"/>
-    <tableColumn id="11" xr3:uid="{E087555B-2B90-A241-9C32-A0B3AAEEBE85}" name="nchar" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{E087555B-2B90-A241-9C32-A0B3AAEEBE85}" name="nchar" dataDxfId="1">
       <calculatedColumnFormula>LEN(B2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{360DD4EA-4B6C-724F-863E-1432B84B652D}" name="nseg"/>
     <tableColumn id="3" xr3:uid="{DADA6A00-0ACE-D94E-942B-2B1A1BFB0FB0}" name="confidence"/>
-    <tableColumn id="13" xr3:uid="{967B4D78-1F95-D84C-87D9-CB6CC48BFB9A}" name="rid" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{967B4D78-1F95-D84C-87D9-CB6CC48BFB9A}" name="rid" dataDxfId="0">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{FA9A6D98-167B-8346-A663-FBA94DE0CEBE}" name="subsampled"/>
@@ -2961,9 +2961,9 @@
   <dimension ref="A1:O826"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="6440" ySplit="3720" topLeftCell="G821" activePane="topRight"/>
+      <pane xSplit="6440" ySplit="3720" topLeftCell="A821" activePane="topRight"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="topRight" activeCell="M5" sqref="M5"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1:E1048576"/>
       <selection pane="bottomLeft" activeCell="C825" sqref="C825"/>
       <selection pane="bottomRight" activeCell="E832" sqref="E832"/>
     </sheetView>
@@ -2972,6 +2972,7 @@
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3051,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <f>LEN(B2)</f>
+        <f t="shared" ref="J2:J65" si="0">LEN(B2)</f>
         <v>11</v>
       </c>
       <c r="K2">
@@ -3096,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <f>LEN(B3)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K3">
@@ -3141,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>LEN(B4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K4">
@@ -3186,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f>LEN(B5)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="K5">
@@ -3231,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>LEN(B6)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K6">
@@ -3276,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <f>LEN(B7)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K7">
@@ -3321,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <f>LEN(B8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K8">
@@ -3366,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <f>LEN(B9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K9">
@@ -3411,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f>LEN(B10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K10">
@@ -3456,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <f>LEN(B11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K11">
@@ -3501,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <f>LEN(B12)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K12">
@@ -3546,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <f>LEN(B13)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K13">
@@ -3591,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <f>LEN(B14)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K14">
@@ -3636,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <f>LEN(B15)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K15">
@@ -3681,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <f>LEN(B16)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K16">
@@ -3726,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <f>LEN(B17)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K17">
@@ -3771,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <f>LEN(B18)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K18">
@@ -3816,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <f>LEN(B19)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K19">
@@ -3861,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <f>LEN(B20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K20">
@@ -3906,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <f>LEN(B21)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K21">
@@ -3951,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f>LEN(B22)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K22">
@@ -3996,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <f>LEN(B23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K23">
@@ -4041,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <f>LEN(B24)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K24">
@@ -4086,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <f>LEN(B25)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K25">
@@ -4131,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <f>LEN(B26)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K26">
@@ -4176,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <f>LEN(B27)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K27">
@@ -4221,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <f>LEN(B28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K28">
@@ -4266,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <f>LEN(B29)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K29">
@@ -4311,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <f>LEN(B30)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K30">
@@ -4356,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <f>LEN(B31)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K31">
@@ -4401,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <f>LEN(B32)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K32">
@@ -4446,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <f>LEN(B33)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K33">
@@ -4491,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <f>LEN(B34)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K34">
@@ -4536,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <f>LEN(B35)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K35">
@@ -4581,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <f>LEN(B36)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K36">
@@ -4626,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <f>LEN(B37)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K37">
@@ -4671,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <f>LEN(B38)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K38">
@@ -4716,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <f>LEN(B39)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K39">
@@ -4761,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <f>LEN(B40)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K40">
@@ -4806,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <f>LEN(B41)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K41">
@@ -4851,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <f>LEN(B42)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K42">
@@ -4896,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <f>LEN(B43)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K43">
@@ -4941,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <f>LEN(B44)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K44">
@@ -4986,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <f>LEN(B45)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K45">
@@ -5031,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <f>LEN(B46)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K46">
@@ -5076,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <f>LEN(B47)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K47">
@@ -5121,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <f>LEN(B48)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K48">
@@ -5166,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <f>LEN(B49)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K49">
@@ -5211,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <f>LEN(B50)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K50">
@@ -5256,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <f>LEN(B51)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K51">
@@ -5301,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <f>LEN(B52)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="K52">
@@ -5346,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f>LEN(B53)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K53">
@@ -5391,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <f>LEN(B54)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K54">
@@ -5436,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <f>LEN(B55)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K55">
@@ -5481,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <f>LEN(B56)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K56">
@@ -5526,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <f>LEN(B57)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K57">
@@ -5571,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <f>LEN(B58)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K58">
@@ -5616,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <f>LEN(B59)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K59">
@@ -5661,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <f>LEN(B60)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="K60">
@@ -5706,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <f>LEN(B61)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K61">
@@ -5751,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <f>LEN(B62)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K62">
@@ -5796,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <f>LEN(B63)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K63">
@@ -5841,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <f>LEN(B64)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K64">
@@ -5886,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <f>LEN(B65)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K65">
@@ -5931,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <f>LEN(B66)</f>
+        <f t="shared" ref="J66:J129" si="1">LEN(B66)</f>
         <v>13</v>
       </c>
       <c r="K66">
@@ -5976,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <f>LEN(B67)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K67">
@@ -6021,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <f>LEN(B68)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K68">
@@ -6066,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <f>LEN(B69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K69">
@@ -6111,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <f>LEN(B70)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K70">
@@ -6156,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <f>LEN(B71)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K71">
@@ -6201,7 +6202,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <f>LEN(B72)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K72">
@@ -6246,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <f>LEN(B73)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K73">
@@ -6291,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <f>LEN(B74)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K74">
@@ -6336,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <f>LEN(B75)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K75">
@@ -6381,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <f>LEN(B76)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K76">
@@ -6426,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <f>LEN(B77)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K77">
@@ -6471,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <f>LEN(B78)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K78">
@@ -6516,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <f>LEN(B79)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K79">
@@ -6561,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <f>LEN(B80)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K80">
@@ -6606,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <f>LEN(B81)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K81">
@@ -6651,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="J82">
-        <f>LEN(B82)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K82">
@@ -6696,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <f>LEN(B83)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K83">
@@ -6741,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <f>LEN(B84)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K84">
@@ -6786,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <f>LEN(B85)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K85">
@@ -6831,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <f>LEN(B86)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K86">
@@ -6876,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="J87">
-        <f>LEN(B87)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K87">
@@ -6921,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <f>LEN(B88)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K88">
@@ -6966,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <f>LEN(B89)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K89">
@@ -7011,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <f>LEN(B90)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K90">
@@ -7056,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <f>LEN(B91)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K91">
@@ -7101,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <f>LEN(B92)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K92">
@@ -7146,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <f>LEN(B93)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K93">
@@ -7191,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <f>LEN(B94)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K94">
@@ -7236,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <f>LEN(B95)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K95">
@@ -7281,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <f>LEN(B96)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K96">
@@ -7326,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <f>LEN(B97)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K97">
@@ -7371,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <f>LEN(B98)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K98">
@@ -7416,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <f>LEN(B99)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K99">
@@ -7461,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <f>LEN(B100)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K100">
@@ -7506,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <f>LEN(B101)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K101">
@@ -7551,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <f>LEN(B102)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K102">
@@ -7596,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <f>LEN(B103)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K103">
@@ -7641,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <f>LEN(B104)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K104">
@@ -7686,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <f>LEN(B105)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K105">
@@ -7731,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <f>LEN(B106)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K106">
@@ -7776,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <f>LEN(B107)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K107">
@@ -7821,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <f>LEN(B108)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K108">
@@ -7866,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <f>LEN(B109)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K109">
@@ -7911,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <f>LEN(B110)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K110">
@@ -7956,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <f>LEN(B111)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K111">
@@ -8001,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <f>LEN(B112)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K112">
@@ -8046,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <f>LEN(B113)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K113">
@@ -8091,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <f>LEN(B114)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K114">
@@ -8136,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <f>LEN(B115)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K115">
@@ -8181,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <f>LEN(B116)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K116">
@@ -8226,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <f>LEN(B117)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K117">
@@ -8271,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <f>LEN(B118)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K118">
@@ -8316,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f>LEN(B119)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K119">
@@ -8361,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <f>LEN(B120)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K120">
@@ -8406,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <f>LEN(B121)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K121">
@@ -8451,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <f>LEN(B122)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K122">
@@ -8496,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <f>LEN(B123)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K123">
@@ -8541,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <f>LEN(B124)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K124">
@@ -8586,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <f>LEN(B125)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K125">
@@ -8631,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <f>LEN(B126)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K126">
@@ -8676,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <f>LEN(B127)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K127">
@@ -8721,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <f>LEN(B128)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K128">
@@ -8766,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <f>LEN(B129)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K129">
@@ -8811,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <f>LEN(B130)</f>
+        <f t="shared" ref="J130:J193" si="2">LEN(B130)</f>
         <v>11</v>
       </c>
       <c r="K130">
@@ -8856,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <f>LEN(B131)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K131">
@@ -8901,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <f>LEN(B132)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K132">
@@ -8946,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <f>LEN(B133)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K133">
@@ -8991,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <f>LEN(B134)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K134">
@@ -9036,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <f>LEN(B135)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K135">
@@ -9081,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <f>LEN(B136)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K136">
@@ -9126,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <f>LEN(B137)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K137">
@@ -9171,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <f>LEN(B138)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K138">
@@ -9216,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <f>LEN(B139)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K139">
@@ -9261,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <f>LEN(B140)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K140">
@@ -9306,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <f>LEN(B141)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K141">
@@ -9351,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <f>LEN(B142)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K142">
@@ -9396,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <f>LEN(B143)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K143">
@@ -9441,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <f>LEN(B144)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K144">
@@ -9486,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <f>LEN(B145)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K145">
@@ -9531,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="J146">
-        <f>LEN(B146)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K146">
@@ -9576,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="J147">
-        <f>LEN(B147)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K147">
@@ -9621,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="J148">
-        <f>LEN(B148)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K148">
@@ -9666,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <f>LEN(B149)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K149">
@@ -9711,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J150">
-        <f>LEN(B150)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K150">
@@ -9756,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="J151">
-        <f>LEN(B151)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K151">
@@ -9801,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="J152">
-        <f>LEN(B152)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K152">
@@ -9846,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="J153">
-        <f>LEN(B153)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K153">
@@ -9891,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="J154">
-        <f>LEN(B154)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K154">
@@ -9936,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="J155">
-        <f>LEN(B155)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K155">
@@ -9981,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="J156">
-        <f>LEN(B156)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K156">
@@ -10026,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <f>LEN(B157)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K157">
@@ -10071,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <f>LEN(B158)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K158">
@@ -10116,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="J159">
-        <f>LEN(B159)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K159">
@@ -10161,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="J160">
-        <f>LEN(B160)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K160">
@@ -10206,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="J161">
-        <f>LEN(B161)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K161">
@@ -10251,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="J162">
-        <f>LEN(B162)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K162">
@@ -10296,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="J163">
-        <f>LEN(B163)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K163">
@@ -10341,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="J164">
-        <f>LEN(B164)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K164">
@@ -10386,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="J165">
-        <f>LEN(B165)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K165">
@@ -10431,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="J166">
-        <f>LEN(B166)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K166">
@@ -10476,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <f>LEN(B167)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K167">
@@ -10521,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="J168">
-        <f>LEN(B168)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K168">
@@ -10566,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="J169">
-        <f>LEN(B169)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K169">
@@ -10611,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <f>LEN(B170)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K170">
@@ -10656,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="J171">
-        <f>LEN(B171)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K171">
@@ -10701,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="J172">
-        <f>LEN(B172)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K172">
@@ -10746,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <f>LEN(B173)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K173">
@@ -10791,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="J174">
-        <f>LEN(B174)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K174">
@@ -10836,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="J175">
-        <f>LEN(B175)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K175">
@@ -10881,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="J176">
-        <f>LEN(B176)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K176">
@@ -10926,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="J177">
-        <f>LEN(B177)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K177">
@@ -10971,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="J178">
-        <f>LEN(B178)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K178">
@@ -11016,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="J179">
-        <f>LEN(B179)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K179">
@@ -11061,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="J180">
-        <f>LEN(B180)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K180">
@@ -11106,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="J181">
-        <f>LEN(B181)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K181">
@@ -11151,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="J182">
-        <f>LEN(B182)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K182">
@@ -11196,7 +11197,7 @@
         <v>0</v>
       </c>
       <c r="J183">
-        <f>LEN(B183)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K183">
@@ -11241,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="J184">
-        <f>LEN(B184)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K184">
@@ -11286,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="J185">
-        <f>LEN(B185)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K185">
@@ -11331,7 +11332,7 @@
         <v>0</v>
       </c>
       <c r="J186">
-        <f>LEN(B186)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="K186">
@@ -11376,7 +11377,7 @@
         <v>0</v>
       </c>
       <c r="J187">
-        <f>LEN(B187)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K187">
@@ -11421,7 +11422,7 @@
         <v>0</v>
       </c>
       <c r="J188">
-        <f>LEN(B188)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K188">
@@ -11466,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <f>LEN(B189)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K189">
@@ -11511,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="J190">
-        <f>LEN(B190)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K190">
@@ -11556,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="J191">
-        <f>LEN(B191)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K191">
@@ -11601,7 +11602,7 @@
         <v>0</v>
       </c>
       <c r="J192">
-        <f>LEN(B192)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K192">
@@ -11646,7 +11647,7 @@
         <v>0</v>
       </c>
       <c r="J193">
-        <f>LEN(B193)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K193">
@@ -11691,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="J194">
-        <f>LEN(B194)</f>
+        <f t="shared" ref="J194:J257" si="3">LEN(B194)</f>
         <v>8</v>
       </c>
       <c r="K194">
@@ -11736,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="J195">
-        <f>LEN(B195)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K195">
@@ -11781,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <f>LEN(B196)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K196">
@@ -11826,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="J197">
-        <f>LEN(B197)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K197">
@@ -11871,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="J198">
-        <f>LEN(B198)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K198">
@@ -11916,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="J199">
-        <f>LEN(B199)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K199">
@@ -11961,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="J200">
-        <f>LEN(B200)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K200">
@@ -12006,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="J201">
-        <f>LEN(B201)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K201">
@@ -12051,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="J202">
-        <f>LEN(B202)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K202">
@@ -12096,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="J203">
-        <f>LEN(B203)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K203">
@@ -12141,7 +12142,7 @@
         <v>0</v>
       </c>
       <c r="J204">
-        <f>LEN(B204)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K204">
@@ -12186,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="J205">
-        <f>LEN(B205)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K205">
@@ -12231,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="J206">
-        <f>LEN(B206)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K206">
@@ -12276,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="J207">
-        <f>LEN(B207)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K207">
@@ -12321,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="J208">
-        <f>LEN(B208)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K208">
@@ -12366,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="J209">
-        <f>LEN(B209)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K209">
@@ -12411,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="J210">
-        <f>LEN(B210)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K210">
@@ -12456,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="J211">
-        <f>LEN(B211)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K211">
@@ -12501,7 +12502,7 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <f>LEN(B212)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K212">
@@ -12546,7 +12547,7 @@
         <v>0</v>
       </c>
       <c r="J213">
-        <f>LEN(B213)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K213">
@@ -12591,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="J214">
-        <f>LEN(B214)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K214">
@@ -12636,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="J215">
-        <f>LEN(B215)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K215">
@@ -12681,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="J216">
-        <f>LEN(B216)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K216">
@@ -12726,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="J217">
-        <f>LEN(B217)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K217">
@@ -12771,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="J218">
-        <f>LEN(B218)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K218">
@@ -12816,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="J219">
-        <f>LEN(B219)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K219">
@@ -12861,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="J220">
-        <f>LEN(B220)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K220">
@@ -12906,7 +12907,7 @@
         <v>0</v>
       </c>
       <c r="J221">
-        <f>LEN(B221)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K221">
@@ -12951,7 +12952,7 @@
         <v>0</v>
       </c>
       <c r="J222">
-        <f>LEN(B222)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K222">
@@ -12996,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="J223">
-        <f>LEN(B223)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K223">
@@ -13041,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="J224">
-        <f>LEN(B224)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K224">
@@ -13086,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="J225">
-        <f>LEN(B225)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K225">
@@ -13131,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="J226">
-        <f>LEN(B226)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K226">
@@ -13176,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="J227">
-        <f>LEN(B227)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K227">
@@ -13221,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="J228">
-        <f>LEN(B228)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K228">
@@ -13266,7 +13267,7 @@
         <v>0</v>
       </c>
       <c r="J229">
-        <f>LEN(B229)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K229">
@@ -13311,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="J230">
-        <f>LEN(B230)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K230">
@@ -13356,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="J231">
-        <f>LEN(B231)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K231">
@@ -13401,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="J232">
-        <f>LEN(B232)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="K232">
@@ -13446,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="J233">
-        <f>LEN(B233)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K233">
@@ -13491,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="J234">
-        <f>LEN(B234)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K234">
@@ -13536,7 +13537,7 @@
         <v>0</v>
       </c>
       <c r="J235">
-        <f>LEN(B235)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K235">
@@ -13581,7 +13582,7 @@
         <v>0</v>
       </c>
       <c r="J236">
-        <f>LEN(B236)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K236">
@@ -13626,7 +13627,7 @@
         <v>0</v>
       </c>
       <c r="J237">
-        <f>LEN(B237)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K237">
@@ -13671,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="J238">
-        <f>LEN(B238)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K238">
@@ -13716,7 +13717,7 @@
         <v>0</v>
       </c>
       <c r="J239">
-        <f>LEN(B239)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K239">
@@ -13761,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="J240">
-        <f>LEN(B240)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K240">
@@ -13806,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="J241">
-        <f>LEN(B241)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K241">
@@ -13851,7 +13852,7 @@
         <v>0</v>
       </c>
       <c r="J242">
-        <f>LEN(B242)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K242">
@@ -13896,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="J243">
-        <f>LEN(B243)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K243">
@@ -13941,7 +13942,7 @@
         <v>0</v>
       </c>
       <c r="J244">
-        <f>LEN(B244)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K244">
@@ -13986,7 +13987,7 @@
         <v>0</v>
       </c>
       <c r="J245">
-        <f>LEN(B245)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="K245">
@@ -14031,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="J246">
-        <f>LEN(B246)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K246">
@@ -14076,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="J247">
-        <f>LEN(B247)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="K247">
@@ -14121,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="J248">
-        <f>LEN(B248)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K248">
@@ -14166,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="J249">
-        <f>LEN(B249)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K249">
@@ -14211,7 +14212,7 @@
         <v>0</v>
       </c>
       <c r="J250">
-        <f>LEN(B250)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K250">
@@ -14256,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="J251">
-        <f>LEN(B251)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K251">
@@ -14301,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="J252">
-        <f>LEN(B252)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K252">
@@ -14346,7 +14347,7 @@
         <v>0</v>
       </c>
       <c r="J253">
-        <f>LEN(B253)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K253">
@@ -14391,7 +14392,7 @@
         <v>0</v>
       </c>
       <c r="J254">
-        <f>LEN(B254)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K254">
@@ -14436,7 +14437,7 @@
         <v>0</v>
       </c>
       <c r="J255">
-        <f>LEN(B255)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K255">
@@ -14481,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="J256">
-        <f>LEN(B256)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K256">
@@ -14526,7 +14527,7 @@
         <v>0</v>
       </c>
       <c r="J257">
-        <f>LEN(B257)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="K257">
@@ -14571,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="J258">
-        <f>LEN(B258)</f>
+        <f t="shared" ref="J258:J321" si="4">LEN(B258)</f>
         <v>5</v>
       </c>
       <c r="K258">
@@ -14616,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <f>LEN(B259)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K259">
@@ -14661,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="J260">
-        <f>LEN(B260)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K260">
@@ -14706,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="J261">
-        <f>LEN(B261)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K261">
@@ -14751,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <f>LEN(B262)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K262">
@@ -14796,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="J263">
-        <f>LEN(B263)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K263">
@@ -14841,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <f>LEN(B264)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K264">
@@ -14886,7 +14887,7 @@
         <v>0</v>
       </c>
       <c r="J265">
-        <f>LEN(B265)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K265">
@@ -14931,7 +14932,7 @@
         <v>0</v>
       </c>
       <c r="J266">
-        <f>LEN(B266)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K266">
@@ -14976,7 +14977,7 @@
         <v>0</v>
       </c>
       <c r="J267">
-        <f>LEN(B267)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K267">
@@ -15021,7 +15022,7 @@
         <v>0</v>
       </c>
       <c r="J268">
-        <f>LEN(B268)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K268">
@@ -15066,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="J269">
-        <f>LEN(B269)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K269">
@@ -15111,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="J270">
-        <f>LEN(B270)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K270">
@@ -15156,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="J271">
-        <f>LEN(B271)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K271">
@@ -15201,7 +15202,7 @@
         <v>0</v>
       </c>
       <c r="J272">
-        <f>LEN(B272)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K272">
@@ -15246,7 +15247,7 @@
         <v>0</v>
       </c>
       <c r="J273">
-        <f>LEN(B273)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K273">
@@ -15291,7 +15292,7 @@
         <v>0</v>
       </c>
       <c r="J274">
-        <f>LEN(B274)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K274">
@@ -15336,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="J275">
-        <f>LEN(B275)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K275">
@@ -15381,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="J276">
-        <f>LEN(B276)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K276">
@@ -15426,7 +15427,7 @@
         <v>0</v>
       </c>
       <c r="J277">
-        <f>LEN(B277)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K277">
@@ -15471,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="J278">
-        <f>LEN(B278)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K278">
@@ -15516,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="J279">
-        <f>LEN(B279)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K279">
@@ -15561,7 +15562,7 @@
         <v>0</v>
       </c>
       <c r="J280">
-        <f>LEN(B280)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K280">
@@ -15606,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="J281">
-        <f>LEN(B281)</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="K281">
@@ -15651,7 +15652,7 @@
         <v>0</v>
       </c>
       <c r="J282">
-        <f>LEN(B282)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="K282">
@@ -15696,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="J283">
-        <f>LEN(B283)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K283">
@@ -15741,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="J284">
-        <f>LEN(B284)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K284">
@@ -15786,7 +15787,7 @@
         <v>0</v>
       </c>
       <c r="J285">
-        <f>LEN(B285)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K285">
@@ -15831,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="J286">
-        <f>LEN(B286)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K286">
@@ -15876,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="J287">
-        <f>LEN(B287)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K287">
@@ -15921,7 +15922,7 @@
         <v>0</v>
       </c>
       <c r="J288">
-        <f>LEN(B288)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K288">
@@ -15966,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="J289">
-        <f>LEN(B289)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K289">
@@ -16011,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="J290">
-        <f>LEN(B290)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K290">
@@ -16056,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="J291">
-        <f>LEN(B291)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K291">
@@ -16101,7 +16102,7 @@
         <v>0</v>
       </c>
       <c r="J292">
-        <f>LEN(B292)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K292">
@@ -16146,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="J293">
-        <f>LEN(B293)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K293">
@@ -16191,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="J294">
-        <f>LEN(B294)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K294">
@@ -16236,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="J295">
-        <f>LEN(B295)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K295">
@@ -16281,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="J296">
-        <f>LEN(B296)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K296">
@@ -16326,7 +16327,7 @@
         <v>0</v>
       </c>
       <c r="J297">
-        <f>LEN(B297)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K297">
@@ -16371,7 +16372,7 @@
         <v>0</v>
       </c>
       <c r="J298">
-        <f>LEN(B298)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K298">
@@ -16416,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="J299">
-        <f>LEN(B299)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K299">
@@ -16461,7 +16462,7 @@
         <v>0</v>
       </c>
       <c r="J300">
-        <f>LEN(B300)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K300">
@@ -16506,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="J301">
-        <f>LEN(B301)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K301">
@@ -16551,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="J302">
-        <f>LEN(B302)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K302">
@@ -16596,7 +16597,7 @@
         <v>0</v>
       </c>
       <c r="J303">
-        <f>LEN(B303)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K303">
@@ -16641,7 +16642,7 @@
         <v>0</v>
       </c>
       <c r="J304">
-        <f>LEN(B304)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K304">
@@ -16686,7 +16687,7 @@
         <v>0</v>
       </c>
       <c r="J305">
-        <f>LEN(B305)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K305">
@@ -16731,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="J306">
-        <f>LEN(B306)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K306">
@@ -16776,7 +16777,7 @@
         <v>0</v>
       </c>
       <c r="J307">
-        <f>LEN(B307)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K307">
@@ -16821,7 +16822,7 @@
         <v>0</v>
       </c>
       <c r="J308">
-        <f>LEN(B308)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K308">
@@ -16866,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="J309">
-        <f>LEN(B309)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K309">
@@ -16911,7 +16912,7 @@
         <v>0</v>
       </c>
       <c r="J310">
-        <f>LEN(B310)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K310">
@@ -16956,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="J311">
-        <f>LEN(B311)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="K311">
@@ -17001,7 +17002,7 @@
         <v>0</v>
       </c>
       <c r="J312">
-        <f>LEN(B312)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K312">
@@ -17046,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="J313">
-        <f>LEN(B313)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K313">
@@ -17091,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="J314">
-        <f>LEN(B314)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K314">
@@ -17136,7 +17137,7 @@
         <v>0</v>
       </c>
       <c r="J315">
-        <f>LEN(B315)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K315">
@@ -17181,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="J316">
-        <f>LEN(B316)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K316">
@@ -17226,7 +17227,7 @@
         <v>0</v>
       </c>
       <c r="J317">
-        <f>LEN(B317)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K317">
@@ -17271,7 +17272,7 @@
         <v>0</v>
       </c>
       <c r="J318">
-        <f>LEN(B318)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K318">
@@ -17316,7 +17317,7 @@
         <v>0</v>
       </c>
       <c r="J319">
-        <f>LEN(B319)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K319">
@@ -17361,7 +17362,7 @@
         <v>0</v>
       </c>
       <c r="J320">
-        <f>LEN(B320)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="K320">
@@ -17406,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="J321">
-        <f>LEN(B321)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K321">
@@ -17451,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="J322">
-        <f>LEN(B322)</f>
+        <f t="shared" ref="J322:J385" si="5">LEN(B322)</f>
         <v>4</v>
       </c>
       <c r="K322">
@@ -17496,7 +17497,7 @@
         <v>0</v>
       </c>
       <c r="J323">
-        <f>LEN(B323)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K323">
@@ -17541,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="J324">
-        <f>LEN(B324)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K324">
@@ -17586,7 +17587,7 @@
         <v>0</v>
       </c>
       <c r="J325">
-        <f>LEN(B325)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K325">
@@ -17631,7 +17632,7 @@
         <v>0</v>
       </c>
       <c r="J326">
-        <f>LEN(B326)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K326">
@@ -17676,7 +17677,7 @@
         <v>0</v>
       </c>
       <c r="J327">
-        <f>LEN(B327)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K327">
@@ -17721,7 +17722,7 @@
         <v>0</v>
       </c>
       <c r="J328">
-        <f>LEN(B328)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K328">
@@ -17766,7 +17767,7 @@
         <v>0</v>
       </c>
       <c r="J329">
-        <f>LEN(B329)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K329">
@@ -17811,7 +17812,7 @@
         <v>0</v>
       </c>
       <c r="J330">
-        <f>LEN(B330)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K330">
@@ -17856,7 +17857,7 @@
         <v>0</v>
       </c>
       <c r="J331">
-        <f>LEN(B331)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K331">
@@ -17901,7 +17902,7 @@
         <v>0</v>
       </c>
       <c r="J332">
-        <f>LEN(B332)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K332">
@@ -17946,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="J333">
-        <f>LEN(B333)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K333">
@@ -17991,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="J334">
-        <f>LEN(B334)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K334">
@@ -18036,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="J335">
-        <f>LEN(B335)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K335">
@@ -18081,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="J336">
-        <f>LEN(B336)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K336">
@@ -18126,7 +18127,7 @@
         <v>0</v>
       </c>
       <c r="J337">
-        <f>LEN(B337)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="K337">
@@ -18171,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="J338">
-        <f>LEN(B338)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K338">
@@ -18216,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="J339">
-        <f>LEN(B339)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K339">
@@ -18261,7 +18262,7 @@
         <v>0</v>
       </c>
       <c r="J340">
-        <f>LEN(B340)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K340">
@@ -18306,7 +18307,7 @@
         <v>0</v>
       </c>
       <c r="J341">
-        <f>LEN(B341)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K341">
@@ -18351,7 +18352,7 @@
         <v>0</v>
       </c>
       <c r="J342">
-        <f>LEN(B342)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K342">
@@ -18396,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="J343">
-        <f>LEN(B343)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K343">
@@ -18441,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="J344">
-        <f>LEN(B344)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K344">
@@ -18486,7 +18487,7 @@
         <v>0</v>
       </c>
       <c r="J345">
-        <f>LEN(B345)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K345">
@@ -18531,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="J346">
-        <f>LEN(B346)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K346">
@@ -18576,7 +18577,7 @@
         <v>0</v>
       </c>
       <c r="J347">
-        <f>LEN(B347)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K347">
@@ -18621,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="J348">
-        <f>LEN(B348)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K348">
@@ -18666,7 +18667,7 @@
         <v>0</v>
       </c>
       <c r="J349">
-        <f>LEN(B349)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K349">
@@ -18711,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="J350">
-        <f>LEN(B350)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K350">
@@ -18756,7 +18757,7 @@
         <v>0</v>
       </c>
       <c r="J351">
-        <f>LEN(B351)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K351">
@@ -18801,7 +18802,7 @@
         <v>0</v>
       </c>
       <c r="J352">
-        <f>LEN(B352)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K352">
@@ -18846,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="J353">
-        <f>LEN(B353)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K353">
@@ -18891,7 +18892,7 @@
         <v>0</v>
       </c>
       <c r="J354">
-        <f>LEN(B354)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K354">
@@ -18936,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="J355">
-        <f>LEN(B355)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K355">
@@ -18981,7 +18982,7 @@
         <v>0</v>
       </c>
       <c r="J356">
-        <f>LEN(B356)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K356">
@@ -19026,7 +19027,7 @@
         <v>0</v>
       </c>
       <c r="J357">
-        <f>LEN(B357)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K357">
@@ -19071,7 +19072,7 @@
         <v>0</v>
       </c>
       <c r="J358">
-        <f>LEN(B358)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K358">
@@ -19116,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="J359">
-        <f>LEN(B359)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K359">
@@ -19161,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="J360">
-        <f>LEN(B360)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K360">
@@ -19206,7 +19207,7 @@
         <v>0</v>
       </c>
       <c r="J361">
-        <f>LEN(B361)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K361">
@@ -19251,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="J362">
-        <f>LEN(B362)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K362">
@@ -19296,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="J363">
-        <f>LEN(B363)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K363">
@@ -19341,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="J364">
-        <f>LEN(B364)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K364">
@@ -19386,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="J365">
-        <f>LEN(B365)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K365">
@@ -19431,7 +19432,7 @@
         <v>0</v>
       </c>
       <c r="J366">
-        <f>LEN(B366)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K366">
@@ -19476,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="J367">
-        <f>LEN(B367)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K367">
@@ -19521,7 +19522,7 @@
         <v>0</v>
       </c>
       <c r="J368">
-        <f>LEN(B368)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K368">
@@ -19566,7 +19567,7 @@
         <v>0</v>
       </c>
       <c r="J369">
-        <f>LEN(B369)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K369">
@@ -19611,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="J370">
-        <f>LEN(B370)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K370">
@@ -19656,7 +19657,7 @@
         <v>0</v>
       </c>
       <c r="J371">
-        <f>LEN(B371)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K371">
@@ -19701,7 +19702,7 @@
         <v>0</v>
       </c>
       <c r="J372">
-        <f>LEN(B372)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K372">
@@ -19746,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="J373">
-        <f>LEN(B373)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K373">
@@ -19791,7 +19792,7 @@
         <v>0</v>
       </c>
       <c r="J374">
-        <f>LEN(B374)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K374">
@@ -19836,7 +19837,7 @@
         <v>0</v>
       </c>
       <c r="J375">
-        <f>LEN(B375)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K375">
@@ -19881,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="J376">
-        <f>LEN(B376)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="K376">
@@ -19926,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="J377">
-        <f>LEN(B377)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K377">
@@ -19971,7 +19972,7 @@
         <v>0</v>
       </c>
       <c r="J378">
-        <f>LEN(B378)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K378">
@@ -20016,7 +20017,7 @@
         <v>0</v>
       </c>
       <c r="J379">
-        <f>LEN(B379)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K379">
@@ -20061,7 +20062,7 @@
         <v>0</v>
       </c>
       <c r="J380">
-        <f>LEN(B380)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K380">
@@ -20106,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="J381">
-        <f>LEN(B381)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K381">
@@ -20151,7 +20152,7 @@
         <v>0</v>
       </c>
       <c r="J382">
-        <f>LEN(B382)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K382">
@@ -20196,7 +20197,7 @@
         <v>0</v>
       </c>
       <c r="J383">
-        <f>LEN(B383)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="K383">
@@ -20241,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="J384">
-        <f>LEN(B384)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K384">
@@ -20286,7 +20287,7 @@
         <v>0</v>
       </c>
       <c r="J385">
-        <f>LEN(B385)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="K385">
@@ -20331,7 +20332,7 @@
         <v>0</v>
       </c>
       <c r="J386">
-        <f>LEN(B386)</f>
+        <f t="shared" ref="J386:J449" si="6">LEN(B386)</f>
         <v>7</v>
       </c>
       <c r="K386">
@@ -20376,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="J387">
-        <f>LEN(B387)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K387">
@@ -20421,7 +20422,7 @@
         <v>0</v>
       </c>
       <c r="J388">
-        <f>LEN(B388)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K388">
@@ -20466,7 +20467,7 @@
         <v>0</v>
       </c>
       <c r="J389">
-        <f>LEN(B389)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K389">
@@ -20511,7 +20512,7 @@
         <v>0</v>
       </c>
       <c r="J390">
-        <f>LEN(B390)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K390">
@@ -20556,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="J391">
-        <f>LEN(B391)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K391">
@@ -20601,7 +20602,7 @@
         <v>0</v>
       </c>
       <c r="J392">
-        <f>LEN(B392)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K392">
@@ -20646,7 +20647,7 @@
         <v>0</v>
       </c>
       <c r="J393">
-        <f>LEN(B393)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K393">
@@ -20691,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="J394">
-        <f>LEN(B394)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K394">
@@ -20736,7 +20737,7 @@
         <v>0</v>
       </c>
       <c r="J395">
-        <f>LEN(B395)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K395">
@@ -20781,7 +20782,7 @@
         <v>0</v>
       </c>
       <c r="J396">
-        <f>LEN(B396)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K396">
@@ -20826,7 +20827,7 @@
         <v>0</v>
       </c>
       <c r="J397">
-        <f>LEN(B397)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K397">
@@ -20871,7 +20872,7 @@
         <v>0</v>
       </c>
       <c r="J398">
-        <f>LEN(B398)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K398">
@@ -20916,7 +20917,7 @@
         <v>0</v>
       </c>
       <c r="J399">
-        <f>LEN(B399)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K399">
@@ -20961,7 +20962,7 @@
         <v>0</v>
       </c>
       <c r="J400">
-        <f>LEN(B400)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K400">
@@ -21006,7 +21007,7 @@
         <v>0</v>
       </c>
       <c r="J401">
-        <f>LEN(B401)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K401">
@@ -21051,7 +21052,7 @@
         <v>0</v>
       </c>
       <c r="J402">
-        <f>LEN(B402)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="K402">
@@ -21096,7 +21097,7 @@
         <v>0</v>
       </c>
       <c r="J403">
-        <f>LEN(B403)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K403">
@@ -21141,7 +21142,7 @@
         <v>0</v>
       </c>
       <c r="J404">
-        <f>LEN(B404)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K404">
@@ -21186,7 +21187,7 @@
         <v>0</v>
       </c>
       <c r="J405">
-        <f>LEN(B405)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K405">
@@ -21231,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="J406">
-        <f>LEN(B406)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K406">
@@ -21276,7 +21277,7 @@
         <v>0</v>
       </c>
       <c r="J407">
-        <f>LEN(B407)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K407">
@@ -21321,7 +21322,7 @@
         <v>0</v>
       </c>
       <c r="J408">
-        <f>LEN(B408)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K408">
@@ -21366,7 +21367,7 @@
         <v>0</v>
       </c>
       <c r="J409">
-        <f>LEN(B409)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K409">
@@ -21411,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="J410">
-        <f>LEN(B410)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K410">
@@ -21456,7 +21457,7 @@
         <v>0</v>
       </c>
       <c r="J411">
-        <f>LEN(B411)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K411">
@@ -21501,7 +21502,7 @@
         <v>0</v>
       </c>
       <c r="J412">
-        <f>LEN(B412)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K412">
@@ -21546,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="J413">
-        <f>LEN(B413)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K413">
@@ -21591,7 +21592,7 @@
         <v>0</v>
       </c>
       <c r="J414">
-        <f>LEN(B414)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K414">
@@ -21636,7 +21637,7 @@
         <v>0</v>
       </c>
       <c r="J415">
-        <f>LEN(B415)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K415">
@@ -21681,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="J416">
-        <f>LEN(B416)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K416">
@@ -21726,7 +21727,7 @@
         <v>0</v>
       </c>
       <c r="J417">
-        <f>LEN(B417)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K417">
@@ -21771,7 +21772,7 @@
         <v>0</v>
       </c>
       <c r="J418">
-        <f>LEN(B418)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K418">
@@ -21816,7 +21817,7 @@
         <v>0</v>
       </c>
       <c r="J419">
-        <f>LEN(B419)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K419">
@@ -21861,7 +21862,7 @@
         <v>0</v>
       </c>
       <c r="J420">
-        <f>LEN(B420)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K420">
@@ -21906,7 +21907,7 @@
         <v>0</v>
       </c>
       <c r="J421">
-        <f>LEN(B421)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K421">
@@ -21951,7 +21952,7 @@
         <v>0</v>
       </c>
       <c r="J422">
-        <f>LEN(B422)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="K422">
@@ -21996,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="J423">
-        <f>LEN(B423)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K423">
@@ -22041,7 +22042,7 @@
         <v>0</v>
       </c>
       <c r="J424">
-        <f>LEN(B424)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K424">
@@ -22086,7 +22087,7 @@
         <v>0</v>
       </c>
       <c r="J425">
-        <f>LEN(B425)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K425">
@@ -22131,7 +22132,7 @@
         <v>0</v>
       </c>
       <c r="J426">
-        <f>LEN(B426)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K426">
@@ -22176,7 +22177,7 @@
         <v>0</v>
       </c>
       <c r="J427">
-        <f>LEN(B427)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K427">
@@ -22221,7 +22222,7 @@
         <v>0</v>
       </c>
       <c r="J428">
-        <f>LEN(B428)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K428">
@@ -22266,7 +22267,7 @@
         <v>0</v>
       </c>
       <c r="J429">
-        <f>LEN(B429)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K429">
@@ -22311,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="J430">
-        <f>LEN(B430)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K430">
@@ -22356,7 +22357,7 @@
         <v>0</v>
       </c>
       <c r="J431">
-        <f>LEN(B431)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="K431">
@@ -22401,7 +22402,7 @@
         <v>0</v>
       </c>
       <c r="J432">
-        <f>LEN(B432)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="K432">
@@ -22446,7 +22447,7 @@
         <v>0</v>
       </c>
       <c r="J433">
-        <f>LEN(B433)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K433">
@@ -22491,7 +22492,7 @@
         <v>0</v>
       </c>
       <c r="J434">
-        <f>LEN(B434)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K434">
@@ -22536,7 +22537,7 @@
         <v>0</v>
       </c>
       <c r="J435">
-        <f>LEN(B435)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K435">
@@ -22581,7 +22582,7 @@
         <v>0</v>
       </c>
       <c r="J436">
-        <f>LEN(B436)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K436">
@@ -22626,7 +22627,7 @@
         <v>0</v>
       </c>
       <c r="J437">
-        <f>LEN(B437)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K437">
@@ -22671,7 +22672,7 @@
         <v>0</v>
       </c>
       <c r="J438">
-        <f>LEN(B438)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K438">
@@ -22716,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="J439">
-        <f>LEN(B439)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K439">
@@ -22761,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="J440">
-        <f>LEN(B440)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K440">
@@ -22806,7 +22807,7 @@
         <v>0</v>
       </c>
       <c r="J441">
-        <f>LEN(B441)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K441">
@@ -22851,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="J442">
-        <f>LEN(B442)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K442">
@@ -22896,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="J443">
-        <f>LEN(B443)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K443">
@@ -22941,7 +22942,7 @@
         <v>0</v>
       </c>
       <c r="J444">
-        <f>LEN(B444)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K444">
@@ -22986,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="J445">
-        <f>LEN(B445)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K445">
@@ -23031,7 +23032,7 @@
         <v>0</v>
       </c>
       <c r="J446">
-        <f>LEN(B446)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K446">
@@ -23076,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="J447">
-        <f>LEN(B447)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K447">
@@ -23121,7 +23122,7 @@
         <v>0</v>
       </c>
       <c r="J448">
-        <f>LEN(B448)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="K448">
@@ -23166,7 +23167,7 @@
         <v>0</v>
       </c>
       <c r="J449">
-        <f>LEN(B449)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="K449">
@@ -23211,7 +23212,7 @@
         <v>0</v>
       </c>
       <c r="J450">
-        <f>LEN(B450)</f>
+        <f t="shared" ref="J450:J513" si="7">LEN(B450)</f>
         <v>4</v>
       </c>
       <c r="K450">
@@ -23256,7 +23257,7 @@
         <v>0</v>
       </c>
       <c r="J451">
-        <f>LEN(B451)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K451">
@@ -23301,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="J452">
-        <f>LEN(B452)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K452">
@@ -23346,7 +23347,7 @@
         <v>0</v>
       </c>
       <c r="J453">
-        <f>LEN(B453)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K453">
@@ -23391,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="J454">
-        <f>LEN(B454)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K454">
@@ -23436,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J455">
-        <f>LEN(B455)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K455">
@@ -23481,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="J456">
-        <f>LEN(B456)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K456">
@@ -23526,7 +23527,7 @@
         <v>0</v>
       </c>
       <c r="J457">
-        <f>LEN(B457)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="K457">
@@ -23571,7 +23572,7 @@
         <v>0</v>
       </c>
       <c r="J458">
-        <f>LEN(B458)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K458">
@@ -23616,7 +23617,7 @@
         <v>0</v>
       </c>
       <c r="J459">
-        <f>LEN(B459)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K459">
@@ -23661,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="J460">
-        <f>LEN(B460)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K460">
@@ -23706,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="J461">
-        <f>LEN(B461)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K461">
@@ -23751,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="J462">
-        <f>LEN(B462)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K462">
@@ -23796,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="J463">
-        <f>LEN(B463)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K463">
@@ -23841,7 +23842,7 @@
         <v>0</v>
       </c>
       <c r="J464">
-        <f>LEN(B464)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K464">
@@ -23886,7 +23887,7 @@
         <v>0</v>
       </c>
       <c r="J465">
-        <f>LEN(B465)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K465">
@@ -23931,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="J466">
-        <f>LEN(B466)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K466">
@@ -23976,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="J467">
-        <f>LEN(B467)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K467">
@@ -24021,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="J468">
-        <f>LEN(B468)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K468">
@@ -24066,7 +24067,7 @@
         <v>0</v>
       </c>
       <c r="J469">
-        <f>LEN(B469)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K469">
@@ -24111,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="J470">
-        <f>LEN(B470)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K470">
@@ -24156,7 +24157,7 @@
         <v>0</v>
       </c>
       <c r="J471">
-        <f>LEN(B471)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K471">
@@ -24201,7 +24202,7 @@
         <v>0</v>
       </c>
       <c r="J472">
-        <f>LEN(B472)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="K472">
@@ -24246,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="J473">
-        <f>LEN(B473)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K473">
@@ -24291,7 +24292,7 @@
         <v>0</v>
       </c>
       <c r="J474">
-        <f>LEN(B474)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K474">
@@ -24336,7 +24337,7 @@
         <v>0</v>
       </c>
       <c r="J475">
-        <f>LEN(B475)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K475">
@@ -24381,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="J476">
-        <f>LEN(B476)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="K476">
@@ -24426,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="J477">
-        <f>LEN(B477)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K477">
@@ -24471,7 +24472,7 @@
         <v>0</v>
       </c>
       <c r="J478">
-        <f>LEN(B478)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K478">
@@ -24516,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="J479">
-        <f>LEN(B479)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K479">
@@ -24561,7 +24562,7 @@
         <v>0</v>
       </c>
       <c r="J480">
-        <f>LEN(B480)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K480">
@@ -24606,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="J481">
-        <f>LEN(B481)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K481">
@@ -24651,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="J482">
-        <f>LEN(B482)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K482">
@@ -24696,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="J483">
-        <f>LEN(B483)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K483">
@@ -24741,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="J484">
-        <f>LEN(B484)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K484">
@@ -24786,7 +24787,7 @@
         <v>0</v>
       </c>
       <c r="J485">
-        <f>LEN(B485)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="K485">
@@ -24831,7 +24832,7 @@
         <v>0</v>
       </c>
       <c r="J486">
-        <f>LEN(B486)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="K486">
@@ -24876,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="J487">
-        <f>LEN(B487)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K487">
@@ -24921,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="J488">
-        <f>LEN(B488)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K488">
@@ -24966,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="J489">
-        <f>LEN(B489)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K489">
@@ -25011,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="J490">
-        <f>LEN(B490)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K490">
@@ -25056,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="J491">
-        <f>LEN(B491)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K491">
@@ -25101,7 +25102,7 @@
         <v>0</v>
       </c>
       <c r="J492">
-        <f>LEN(B492)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K492">
@@ -25146,7 +25147,7 @@
         <v>0</v>
       </c>
       <c r="J493">
-        <f>LEN(B493)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K493">
@@ -25191,7 +25192,7 @@
         <v>0</v>
       </c>
       <c r="J494">
-        <f>LEN(B494)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K494">
@@ -25236,7 +25237,7 @@
         <v>0</v>
       </c>
       <c r="J495">
-        <f>LEN(B495)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K495">
@@ -25281,7 +25282,7 @@
         <v>0</v>
       </c>
       <c r="J496">
-        <f>LEN(B496)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K496">
@@ -25326,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="J497">
-        <f>LEN(B497)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K497">
@@ -25371,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="J498">
-        <f>LEN(B498)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K498">
@@ -25416,7 +25417,7 @@
         <v>0</v>
       </c>
       <c r="J499">
-        <f>LEN(B499)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K499">
@@ -25461,7 +25462,7 @@
         <v>0</v>
       </c>
       <c r="J500">
-        <f>LEN(B500)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K500">
@@ -25506,7 +25507,7 @@
         <v>0</v>
       </c>
       <c r="J501">
-        <f>LEN(B501)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K501">
@@ -25551,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="J502">
-        <f>LEN(B502)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K502">
@@ -25596,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="J503">
-        <f>LEN(B503)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K503">
@@ -25641,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="J504">
-        <f>LEN(B504)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K504">
@@ -25686,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="J505">
-        <f>LEN(B505)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K505">
@@ -25731,7 +25732,7 @@
         <v>0</v>
       </c>
       <c r="J506">
-        <f>LEN(B506)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K506">
@@ -25776,7 +25777,7 @@
         <v>0</v>
       </c>
       <c r="J507">
-        <f>LEN(B507)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K507">
@@ -25821,7 +25822,7 @@
         <v>0</v>
       </c>
       <c r="J508">
-        <f>LEN(B508)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K508">
@@ -25866,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="J509">
-        <f>LEN(B509)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="K509">
@@ -25911,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="J510">
-        <f>LEN(B510)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K510">
@@ -25956,7 +25957,7 @@
         <v>0</v>
       </c>
       <c r="J511">
-        <f>LEN(B511)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K511">
@@ -26001,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="J512">
-        <f>LEN(B512)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="K512">
@@ -26046,7 +26047,7 @@
         <v>0</v>
       </c>
       <c r="J513">
-        <f>LEN(B513)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K513">
@@ -26091,7 +26092,7 @@
         <v>0</v>
       </c>
       <c r="J514">
-        <f>LEN(B514)</f>
+        <f t="shared" ref="J514:J577" si="8">LEN(B514)</f>
         <v>5</v>
       </c>
       <c r="K514">
@@ -26136,7 +26137,7 @@
         <v>0</v>
       </c>
       <c r="J515">
-        <f>LEN(B515)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K515">
@@ -26181,7 +26182,7 @@
         <v>0</v>
       </c>
       <c r="J516">
-        <f>LEN(B516)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K516">
@@ -26226,7 +26227,7 @@
         <v>0</v>
       </c>
       <c r="J517">
-        <f>LEN(B517)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K517">
@@ -26271,7 +26272,7 @@
         <v>0</v>
       </c>
       <c r="J518">
-        <f>LEN(B518)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K518">
@@ -26316,7 +26317,7 @@
         <v>0</v>
       </c>
       <c r="J519">
-        <f>LEN(B519)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="K519">
@@ -26361,7 +26362,7 @@
         <v>0</v>
       </c>
       <c r="J520">
-        <f>LEN(B520)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K520">
@@ -26406,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="J521">
-        <f>LEN(B521)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K521">
@@ -26451,7 +26452,7 @@
         <v>0</v>
       </c>
       <c r="J522">
-        <f>LEN(B522)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K522">
@@ -26496,7 +26497,7 @@
         <v>0</v>
       </c>
       <c r="J523">
-        <f>LEN(B523)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K523">
@@ -26541,7 +26542,7 @@
         <v>0</v>
       </c>
       <c r="J524">
-        <f>LEN(B524)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K524">
@@ -26586,7 +26587,7 @@
         <v>0</v>
       </c>
       <c r="J525">
-        <f>LEN(B525)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K525">
@@ -26631,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="J526">
-        <f>LEN(B526)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K526">
@@ -26676,7 +26677,7 @@
         <v>0</v>
       </c>
       <c r="J527">
-        <f>LEN(B527)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K527">
@@ -26721,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="J528">
-        <f>LEN(B528)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K528">
@@ -26766,7 +26767,7 @@
         <v>0</v>
       </c>
       <c r="J529">
-        <f>LEN(B529)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K529">
@@ -26811,7 +26812,7 @@
         <v>0</v>
       </c>
       <c r="J530">
-        <f>LEN(B530)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K530">
@@ -26856,7 +26857,7 @@
         <v>0</v>
       </c>
       <c r="J531">
-        <f>LEN(B531)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K531">
@@ -26901,7 +26902,7 @@
         <v>0</v>
       </c>
       <c r="J532">
-        <f>LEN(B532)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K532">
@@ -26946,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="J533">
-        <f>LEN(B533)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="K533">
@@ -26991,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="J534">
-        <f>LEN(B534)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K534">
@@ -27036,7 +27037,7 @@
         <v>0</v>
       </c>
       <c r="J535">
-        <f>LEN(B535)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K535">
@@ -27081,7 +27082,7 @@
         <v>0</v>
       </c>
       <c r="J536">
-        <f>LEN(B536)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K536">
@@ -27126,7 +27127,7 @@
         <v>0</v>
       </c>
       <c r="J537">
-        <f>LEN(B537)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K537">
@@ -27171,7 +27172,7 @@
         <v>0</v>
       </c>
       <c r="J538">
-        <f>LEN(B538)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K538">
@@ -27216,7 +27217,7 @@
         <v>0</v>
       </c>
       <c r="J539">
-        <f>LEN(B539)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K539">
@@ -27261,7 +27262,7 @@
         <v>0</v>
       </c>
       <c r="J540">
-        <f>LEN(B540)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K540">
@@ -27306,7 +27307,7 @@
         <v>0</v>
       </c>
       <c r="J541">
-        <f>LEN(B541)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K541">
@@ -27351,7 +27352,7 @@
         <v>0</v>
       </c>
       <c r="J542">
-        <f>LEN(B542)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K542">
@@ -27396,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="J543">
-        <f>LEN(B543)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K543">
@@ -27441,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="J544">
-        <f>LEN(B544)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K544">
@@ -27486,7 +27487,7 @@
         <v>0</v>
       </c>
       <c r="J545">
-        <f>LEN(B545)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K545">
@@ -27531,7 +27532,7 @@
         <v>0</v>
       </c>
       <c r="J546">
-        <f>LEN(B546)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K546">
@@ -27576,7 +27577,7 @@
         <v>0</v>
       </c>
       <c r="J547">
-        <f>LEN(B547)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K547">
@@ -27621,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="J548">
-        <f>LEN(B548)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K548">
@@ -27666,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="J549">
-        <f>LEN(B549)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K549">
@@ -27711,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="J550">
-        <f>LEN(B550)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K550">
@@ -27756,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="J551">
-        <f>LEN(B551)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K551">
@@ -27801,7 +27802,7 @@
         <v>0</v>
       </c>
       <c r="J552">
-        <f>LEN(B552)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="K552">
@@ -27846,7 +27847,7 @@
         <v>0</v>
       </c>
       <c r="J553">
-        <f>LEN(B553)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K553">
@@ -27891,7 +27892,7 @@
         <v>0</v>
       </c>
       <c r="J554">
-        <f>LEN(B554)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K554">
@@ -27936,7 +27937,7 @@
         <v>0</v>
       </c>
       <c r="J555">
-        <f>LEN(B555)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K555">
@@ -27981,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="J556">
-        <f>LEN(B556)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="K556">
@@ -28026,7 +28027,7 @@
         <v>0</v>
       </c>
       <c r="J557">
-        <f>LEN(B557)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K557">
@@ -28071,7 +28072,7 @@
         <v>0</v>
       </c>
       <c r="J558">
-        <f>LEN(B558)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="K558">
@@ -28116,7 +28117,7 @@
         <v>0</v>
       </c>
       <c r="J559">
-        <f>LEN(B559)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K559">
@@ -28161,7 +28162,7 @@
         <v>0</v>
       </c>
       <c r="J560">
-        <f>LEN(B560)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K560">
@@ -28206,7 +28207,7 @@
         <v>0</v>
       </c>
       <c r="J561">
-        <f>LEN(B561)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K561">
@@ -28251,7 +28252,7 @@
         <v>0</v>
       </c>
       <c r="J562">
-        <f>LEN(B562)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K562">
@@ -28296,7 +28297,7 @@
         <v>0</v>
       </c>
       <c r="J563">
-        <f>LEN(B563)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K563">
@@ -28341,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="J564">
-        <f>LEN(B564)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="K564">
@@ -28386,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="J565">
-        <f>LEN(B565)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K565">
@@ -28431,7 +28432,7 @@
         <v>0</v>
       </c>
       <c r="J566">
-        <f>LEN(B566)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K566">
@@ -28476,7 +28477,7 @@
         <v>0</v>
       </c>
       <c r="J567">
-        <f>LEN(B567)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K567">
@@ -28521,7 +28522,7 @@
         <v>0</v>
       </c>
       <c r="J568">
-        <f>LEN(B568)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K568">
@@ -28566,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="J569">
-        <f>LEN(B569)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K569">
@@ -28611,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="J570">
-        <f>LEN(B570)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K570">
@@ -28656,7 +28657,7 @@
         <v>0</v>
       </c>
       <c r="J571">
-        <f>LEN(B571)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="K571">
@@ -28701,7 +28702,7 @@
         <v>0</v>
       </c>
       <c r="J572">
-        <f>LEN(B572)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K572">
@@ -28746,7 +28747,7 @@
         <v>0</v>
       </c>
       <c r="J573">
-        <f>LEN(B573)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="K573">
@@ -28791,7 +28792,7 @@
         <v>0</v>
       </c>
       <c r="J574">
-        <f>LEN(B574)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K574">
@@ -28836,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="J575">
-        <f>LEN(B575)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K575">
@@ -28881,7 +28882,7 @@
         <v>0</v>
       </c>
       <c r="J576">
-        <f>LEN(B576)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K576">
@@ -28926,7 +28927,7 @@
         <v>0</v>
       </c>
       <c r="J577">
-        <f>LEN(B577)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="K577">
@@ -28971,7 +28972,7 @@
         <v>0</v>
       </c>
       <c r="J578">
-        <f>LEN(B578)</f>
+        <f t="shared" ref="J578:J641" si="9">LEN(B578)</f>
         <v>4</v>
       </c>
       <c r="K578">
@@ -29016,7 +29017,7 @@
         <v>0</v>
       </c>
       <c r="J579">
-        <f>LEN(B579)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K579">
@@ -29061,7 +29062,7 @@
         <v>0</v>
       </c>
       <c r="J580">
-        <f>LEN(B580)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K580">
@@ -29106,7 +29107,7 @@
         <v>0</v>
       </c>
       <c r="J581">
-        <f>LEN(B581)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K581">
@@ -29151,7 +29152,7 @@
         <v>0</v>
       </c>
       <c r="J582">
-        <f>LEN(B582)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K582">
@@ -29196,7 +29197,7 @@
         <v>0</v>
       </c>
       <c r="J583">
-        <f>LEN(B583)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K583">
@@ -29241,7 +29242,7 @@
         <v>0</v>
       </c>
       <c r="J584">
-        <f>LEN(B584)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K584">
@@ -29286,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="J585">
-        <f>LEN(B585)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K585">
@@ -29331,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="J586">
-        <f>LEN(B586)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K586">
@@ -29376,7 +29377,7 @@
         <v>0</v>
       </c>
       <c r="J587">
-        <f>LEN(B587)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K587">
@@ -29421,7 +29422,7 @@
         <v>0</v>
       </c>
       <c r="J588">
-        <f>LEN(B588)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="K588">
@@ -29466,7 +29467,7 @@
         <v>0</v>
       </c>
       <c r="J589">
-        <f>LEN(B589)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K589">
@@ -29511,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="J590">
-        <f>LEN(B590)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="K590">
@@ -29556,7 +29557,7 @@
         <v>0</v>
       </c>
       <c r="J591">
-        <f>LEN(B591)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K591">
@@ -29601,7 +29602,7 @@
         <v>0</v>
       </c>
       <c r="J592">
-        <f>LEN(B592)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K592">
@@ -29646,7 +29647,7 @@
         <v>0</v>
       </c>
       <c r="J593">
-        <f>LEN(B593)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K593">
@@ -29691,7 +29692,7 @@
         <v>0</v>
       </c>
       <c r="J594">
-        <f>LEN(B594)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K594">
@@ -29736,7 +29737,7 @@
         <v>0</v>
       </c>
       <c r="J595">
-        <f>LEN(B595)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K595">
@@ -29781,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="J596">
-        <f>LEN(B596)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K596">
@@ -29826,7 +29827,7 @@
         <v>0</v>
       </c>
       <c r="J597">
-        <f>LEN(B597)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K597">
@@ -29871,7 +29872,7 @@
         <v>0</v>
       </c>
       <c r="J598">
-        <f>LEN(B598)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K598">
@@ -29916,7 +29917,7 @@
         <v>0</v>
       </c>
       <c r="J599">
-        <f>LEN(B599)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="K599">
@@ -29961,7 +29962,7 @@
         <v>0</v>
       </c>
       <c r="J600">
-        <f>LEN(B600)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K600">
@@ -30006,7 +30007,7 @@
         <v>0</v>
       </c>
       <c r="J601">
-        <f>LEN(B601)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="K601">
@@ -30051,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="J602">
-        <f>LEN(B602)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K602">
@@ -30096,7 +30097,7 @@
         <v>0</v>
       </c>
       <c r="J603">
-        <f>LEN(B603)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="K603">
@@ -30141,7 +30142,7 @@
         <v>0</v>
       </c>
       <c r="J604">
-        <f>LEN(B604)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K604">
@@ -30186,7 +30187,7 @@
         <v>0</v>
       </c>
       <c r="J605">
-        <f>LEN(B605)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K605">
@@ -30231,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="J606">
-        <f>LEN(B606)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K606">
@@ -30276,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="J607">
-        <f>LEN(B607)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K607">
@@ -30321,7 +30322,7 @@
         <v>0</v>
       </c>
       <c r="J608">
-        <f>LEN(B608)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K608">
@@ -30366,7 +30367,7 @@
         <v>0</v>
       </c>
       <c r="J609">
-        <f>LEN(B609)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K609">
@@ -30411,7 +30412,7 @@
         <v>0</v>
       </c>
       <c r="J610">
-        <f>LEN(B610)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="K610">
@@ -30456,7 +30457,7 @@
         <v>0</v>
       </c>
       <c r="J611">
-        <f>LEN(B611)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="K611">
@@ -30501,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="J612">
-        <f>LEN(B612)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K612">
@@ -30546,7 +30547,7 @@
         <v>0</v>
       </c>
       <c r="J613">
-        <f>LEN(B613)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K613">
@@ -30591,7 +30592,7 @@
         <v>0</v>
       </c>
       <c r="J614">
-        <f>LEN(B614)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K614">
@@ -30636,7 +30637,7 @@
         <v>0</v>
       </c>
       <c r="J615">
-        <f>LEN(B615)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K615">
@@ -30681,7 +30682,7 @@
         <v>0</v>
       </c>
       <c r="J616">
-        <f>LEN(B616)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K616">
@@ -30726,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="J617">
-        <f>LEN(B617)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K617">
@@ -30771,7 +30772,7 @@
         <v>0</v>
       </c>
       <c r="J618">
-        <f>LEN(B618)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K618">
@@ -30816,7 +30817,7 @@
         <v>0</v>
       </c>
       <c r="J619">
-        <f>LEN(B619)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K619">
@@ -30861,7 +30862,7 @@
         <v>0</v>
       </c>
       <c r="J620">
-        <f>LEN(B620)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K620">
@@ -30906,7 +30907,7 @@
         <v>0</v>
       </c>
       <c r="J621">
-        <f>LEN(B621)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K621">
@@ -30951,7 +30952,7 @@
         <v>0</v>
       </c>
       <c r="J622">
-        <f>LEN(B622)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="K622">
@@ -30996,7 +30997,7 @@
         <v>0</v>
       </c>
       <c r="J623">
-        <f>LEN(B623)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K623">
@@ -31041,7 +31042,7 @@
         <v>0</v>
       </c>
       <c r="J624">
-        <f>LEN(B624)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K624">
@@ -31086,7 +31087,7 @@
         <v>0</v>
       </c>
       <c r="J625">
-        <f>LEN(B625)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K625">
@@ -31131,7 +31132,7 @@
         <v>0</v>
       </c>
       <c r="J626">
-        <f>LEN(B626)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K626">
@@ -31176,7 +31177,7 @@
         <v>0</v>
       </c>
       <c r="J627">
-        <f>LEN(B627)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K627">
@@ -31221,7 +31222,7 @@
         <v>0</v>
       </c>
       <c r="J628">
-        <f>LEN(B628)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K628">
@@ -31266,7 +31267,7 @@
         <v>0</v>
       </c>
       <c r="J629">
-        <f>LEN(B629)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K629">
@@ -31311,7 +31312,7 @@
         <v>0</v>
       </c>
       <c r="J630">
-        <f>LEN(B630)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K630">
@@ -31356,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="J631">
-        <f>LEN(B631)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="K631">
@@ -31401,7 +31402,7 @@
         <v>0</v>
       </c>
       <c r="J632">
-        <f>LEN(B632)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="K632">
@@ -31446,7 +31447,7 @@
         <v>0</v>
       </c>
       <c r="J633">
-        <f>LEN(B633)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K633">
@@ -31491,7 +31492,7 @@
         <v>0</v>
       </c>
       <c r="J634">
-        <f>LEN(B634)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K634">
@@ -31536,7 +31537,7 @@
         <v>0</v>
       </c>
       <c r="J635">
-        <f>LEN(B635)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K635">
@@ -31581,7 +31582,7 @@
         <v>0</v>
       </c>
       <c r="J636">
-        <f>LEN(B636)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K636">
@@ -31626,7 +31627,7 @@
         <v>0</v>
       </c>
       <c r="J637">
-        <f>LEN(B637)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K637">
@@ -31671,7 +31672,7 @@
         <v>0</v>
       </c>
       <c r="J638">
-        <f>LEN(B638)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="K638">
@@ -31716,7 +31717,7 @@
         <v>0</v>
       </c>
       <c r="J639">
-        <f>LEN(B639)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="K639">
@@ -31761,7 +31762,7 @@
         <v>0</v>
       </c>
       <c r="J640">
-        <f>LEN(B640)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K640">
@@ -31806,7 +31807,7 @@
         <v>0</v>
       </c>
       <c r="J641">
-        <f>LEN(B641)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="K641">
@@ -31851,7 +31852,7 @@
         <v>0</v>
       </c>
       <c r="J642">
-        <f>LEN(B642)</f>
+        <f t="shared" ref="J642:J705" si="10">LEN(B642)</f>
         <v>5</v>
       </c>
       <c r="K642">
@@ -31896,7 +31897,7 @@
         <v>0</v>
       </c>
       <c r="J643">
-        <f>LEN(B643)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="K643">
@@ -31941,7 +31942,7 @@
         <v>0</v>
       </c>
       <c r="J644">
-        <f>LEN(B644)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K644">
@@ -31986,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="J645">
-        <f>LEN(B645)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K645">
@@ -32031,7 +32032,7 @@
         <v>0</v>
       </c>
       <c r="J646">
-        <f>LEN(B646)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K646">
@@ -32076,7 +32077,7 @@
         <v>0</v>
       </c>
       <c r="J647">
-        <f>LEN(B647)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K647">
@@ -32121,7 +32122,7 @@
         <v>0</v>
       </c>
       <c r="J648">
-        <f>LEN(B648)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="K648">
@@ -32166,7 +32167,7 @@
         <v>0</v>
       </c>
       <c r="J649">
-        <f>LEN(B649)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K649">
@@ -32211,7 +32212,7 @@
         <v>0</v>
       </c>
       <c r="J650">
-        <f>LEN(B650)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K650">
@@ -32256,7 +32257,7 @@
         <v>0</v>
       </c>
       <c r="J651">
-        <f>LEN(B651)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K651">
@@ -32301,7 +32302,7 @@
         <v>0</v>
       </c>
       <c r="J652">
-        <f>LEN(B652)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K652">
@@ -32346,7 +32347,7 @@
         <v>0</v>
       </c>
       <c r="J653">
-        <f>LEN(B653)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K653">
@@ -32391,7 +32392,7 @@
         <v>0</v>
       </c>
       <c r="J654">
-        <f>LEN(B654)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K654">
@@ -32436,7 +32437,7 @@
         <v>0</v>
       </c>
       <c r="J655">
-        <f>LEN(B655)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K655">
@@ -32481,7 +32482,7 @@
         <v>0</v>
       </c>
       <c r="J656">
-        <f>LEN(B656)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K656">
@@ -32526,7 +32527,7 @@
         <v>0</v>
       </c>
       <c r="J657">
-        <f>LEN(B657)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K657">
@@ -32571,7 +32572,7 @@
         <v>0</v>
       </c>
       <c r="J658">
-        <f>LEN(B658)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K658">
@@ -32616,7 +32617,7 @@
         <v>0</v>
       </c>
       <c r="J659">
-        <f>LEN(B659)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K659">
@@ -32661,7 +32662,7 @@
         <v>0</v>
       </c>
       <c r="J660">
-        <f>LEN(B660)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K660">
@@ -32706,7 +32707,7 @@
         <v>0</v>
       </c>
       <c r="J661">
-        <f>LEN(B661)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K661">
@@ -32751,7 +32752,7 @@
         <v>0</v>
       </c>
       <c r="J662">
-        <f>LEN(B662)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K662">
@@ -32796,7 +32797,7 @@
         <v>0</v>
       </c>
       <c r="J663">
-        <f>LEN(B663)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K663">
@@ -32841,7 +32842,7 @@
         <v>0</v>
       </c>
       <c r="J664">
-        <f>LEN(B664)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K664">
@@ -32886,7 +32887,7 @@
         <v>0</v>
       </c>
       <c r="J665">
-        <f>LEN(B665)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K665">
@@ -32931,7 +32932,7 @@
         <v>0</v>
       </c>
       <c r="J666">
-        <f>LEN(B666)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K666">
@@ -32976,7 +32977,7 @@
         <v>0</v>
       </c>
       <c r="J667">
-        <f>LEN(B667)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="K667">
@@ -33021,7 +33022,7 @@
         <v>0</v>
       </c>
       <c r="J668">
-        <f>LEN(B668)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K668">
@@ -33066,7 +33067,7 @@
         <v>0</v>
       </c>
       <c r="J669">
-        <f>LEN(B669)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K669">
@@ -33111,7 +33112,7 @@
         <v>0</v>
       </c>
       <c r="J670">
-        <f>LEN(B670)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K670">
@@ -33156,7 +33157,7 @@
         <v>0</v>
       </c>
       <c r="J671">
-        <f>LEN(B671)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K671">
@@ -33201,7 +33202,7 @@
         <v>0</v>
       </c>
       <c r="J672">
-        <f>LEN(B672)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K672">
@@ -33246,7 +33247,7 @@
         <v>0</v>
       </c>
       <c r="J673">
-        <f>LEN(B673)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K673">
@@ -33291,7 +33292,7 @@
         <v>0</v>
       </c>
       <c r="J674">
-        <f>LEN(B674)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K674">
@@ -33336,7 +33337,7 @@
         <v>0</v>
       </c>
       <c r="J675">
-        <f>LEN(B675)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K675">
@@ -33381,7 +33382,7 @@
         <v>0</v>
       </c>
       <c r="J676">
-        <f>LEN(B676)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K676">
@@ -33426,7 +33427,7 @@
         <v>0</v>
       </c>
       <c r="J677">
-        <f>LEN(B677)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K677">
@@ -33471,7 +33472,7 @@
         <v>0</v>
       </c>
       <c r="J678">
-        <f>LEN(B678)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K678">
@@ -33516,7 +33517,7 @@
         <v>0</v>
       </c>
       <c r="J679">
-        <f>LEN(B679)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K679">
@@ -33561,7 +33562,7 @@
         <v>0</v>
       </c>
       <c r="J680">
-        <f>LEN(B680)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K680">
@@ -33606,7 +33607,7 @@
         <v>0</v>
       </c>
       <c r="J681">
-        <f>LEN(B681)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K681">
@@ -33651,7 +33652,7 @@
         <v>0</v>
       </c>
       <c r="J682">
-        <f>LEN(B682)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K682">
@@ -33696,7 +33697,7 @@
         <v>0</v>
       </c>
       <c r="J683">
-        <f>LEN(B683)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K683">
@@ -33741,7 +33742,7 @@
         <v>0</v>
       </c>
       <c r="J684">
-        <f>LEN(B684)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K684">
@@ -33786,7 +33787,7 @@
         <v>0</v>
       </c>
       <c r="J685">
-        <f>LEN(B685)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K685">
@@ -33831,7 +33832,7 @@
         <v>0</v>
       </c>
       <c r="J686">
-        <f>LEN(B686)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K686">
@@ -33876,7 +33877,7 @@
         <v>0</v>
       </c>
       <c r="J687">
-        <f>LEN(B687)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K687">
@@ -33921,7 +33922,7 @@
         <v>0</v>
       </c>
       <c r="J688">
-        <f>LEN(B688)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K688">
@@ -33966,7 +33967,7 @@
         <v>0</v>
       </c>
       <c r="J689">
-        <f>LEN(B689)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K689">
@@ -34011,7 +34012,7 @@
         <v>0</v>
       </c>
       <c r="J690">
-        <f>LEN(B690)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K690">
@@ -34056,7 +34057,7 @@
         <v>0</v>
       </c>
       <c r="J691">
-        <f>LEN(B691)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K691">
@@ -34101,7 +34102,7 @@
         <v>0</v>
       </c>
       <c r="J692">
-        <f>LEN(B692)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K692">
@@ -34146,7 +34147,7 @@
         <v>0</v>
       </c>
       <c r="J693">
-        <f>LEN(B693)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K693">
@@ -34191,7 +34192,7 @@
         <v>0</v>
       </c>
       <c r="J694">
-        <f>LEN(B694)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K694">
@@ -34236,7 +34237,7 @@
         <v>0</v>
       </c>
       <c r="J695">
-        <f>LEN(B695)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="K695">
@@ -34281,7 +34282,7 @@
         <v>0</v>
       </c>
       <c r="J696">
-        <f>LEN(B696)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K696">
@@ -34326,7 +34327,7 @@
         <v>0</v>
       </c>
       <c r="J697">
-        <f>LEN(B697)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K697">
@@ -34371,7 +34372,7 @@
         <v>0</v>
       </c>
       <c r="J698">
-        <f>LEN(B698)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K698">
@@ -34416,7 +34417,7 @@
         <v>0</v>
       </c>
       <c r="J699">
-        <f>LEN(B699)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K699">
@@ -34461,7 +34462,7 @@
         <v>0</v>
       </c>
       <c r="J700">
-        <f>LEN(B700)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K700">
@@ -34506,7 +34507,7 @@
         <v>0</v>
       </c>
       <c r="J701">
-        <f>LEN(B701)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K701">
@@ -34551,7 +34552,7 @@
         <v>0</v>
       </c>
       <c r="J702">
-        <f>LEN(B702)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K702">
@@ -34596,7 +34597,7 @@
         <v>0</v>
       </c>
       <c r="J703">
-        <f>LEN(B703)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K703">
@@ -34641,7 +34642,7 @@
         <v>0</v>
       </c>
       <c r="J704">
-        <f>LEN(B704)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K704">
@@ -34686,7 +34687,7 @@
         <v>0</v>
       </c>
       <c r="J705">
-        <f>LEN(B705)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K705">
@@ -34731,7 +34732,7 @@
         <v>0</v>
       </c>
       <c r="J706">
-        <f>LEN(B706)</f>
+        <f t="shared" ref="J706:J769" si="11">LEN(B706)</f>
         <v>5</v>
       </c>
       <c r="K706">
@@ -34776,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J707">
-        <f>LEN(B707)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K707">
@@ -34821,7 +34822,7 @@
         <v>0</v>
       </c>
       <c r="J708">
-        <f>LEN(B708)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K708">
@@ -34866,7 +34867,7 @@
         <v>0</v>
       </c>
       <c r="J709">
-        <f>LEN(B709)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K709">
@@ -34911,7 +34912,7 @@
         <v>0</v>
       </c>
       <c r="J710">
-        <f>LEN(B710)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K710">
@@ -34956,7 +34957,7 @@
         <v>0</v>
       </c>
       <c r="J711">
-        <f>LEN(B711)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K711">
@@ -35001,7 +35002,7 @@
         <v>0</v>
       </c>
       <c r="J712">
-        <f>LEN(B712)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K712">
@@ -35046,7 +35047,7 @@
         <v>0</v>
       </c>
       <c r="J713">
-        <f>LEN(B713)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="K713">
@@ -35091,7 +35092,7 @@
         <v>0</v>
       </c>
       <c r="J714">
-        <f>LEN(B714)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K714">
@@ -35136,7 +35137,7 @@
         <v>0</v>
       </c>
       <c r="J715">
-        <f>LEN(B715)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K715">
@@ -35181,7 +35182,7 @@
         <v>0</v>
       </c>
       <c r="J716">
-        <f>LEN(B716)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K716">
@@ -35226,7 +35227,7 @@
         <v>0</v>
       </c>
       <c r="J717">
-        <f>LEN(B717)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K717">
@@ -35271,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="J718">
-        <f>LEN(B718)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K718">
@@ -35316,7 +35317,7 @@
         <v>0</v>
       </c>
       <c r="J719">
-        <f>LEN(B719)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K719">
@@ -35361,7 +35362,7 @@
         <v>0</v>
       </c>
       <c r="J720">
-        <f>LEN(B720)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K720">
@@ -35406,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J721">
-        <f>LEN(B721)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K721">
@@ -35451,7 +35452,7 @@
         <v>0</v>
       </c>
       <c r="J722">
-        <f>LEN(B722)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K722">
@@ -35496,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="J723">
-        <f>LEN(B723)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K723">
@@ -35541,7 +35542,7 @@
         <v>0</v>
       </c>
       <c r="J724">
-        <f>LEN(B724)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K724">
@@ -35586,7 +35587,7 @@
         <v>0</v>
       </c>
       <c r="J725">
-        <f>LEN(B725)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K725">
@@ -35631,7 +35632,7 @@
         <v>0</v>
       </c>
       <c r="J726">
-        <f>LEN(B726)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="K726">
@@ -35676,7 +35677,7 @@
         <v>0</v>
       </c>
       <c r="J727">
-        <f>LEN(B727)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K727">
@@ -35721,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="J728">
-        <f>LEN(B728)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K728">
@@ -35766,7 +35767,7 @@
         <v>0</v>
       </c>
       <c r="J729">
-        <f>LEN(B729)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K729">
@@ -35811,7 +35812,7 @@
         <v>0</v>
       </c>
       <c r="J730">
-        <f>LEN(B730)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K730">
@@ -35856,7 +35857,7 @@
         <v>0</v>
       </c>
       <c r="J731">
-        <f>LEN(B731)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K731">
@@ -35901,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="J732">
-        <f>LEN(B732)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K732">
@@ -35946,7 +35947,7 @@
         <v>0</v>
       </c>
       <c r="J733">
-        <f>LEN(B733)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K733">
@@ -35991,7 +35992,7 @@
         <v>0</v>
       </c>
       <c r="J734">
-        <f>LEN(B734)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K734">
@@ -36036,7 +36037,7 @@
         <v>0</v>
       </c>
       <c r="J735">
-        <f>LEN(B735)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K735">
@@ -36081,7 +36082,7 @@
         <v>0</v>
       </c>
       <c r="J736">
-        <f>LEN(B736)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K736">
@@ -36126,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="J737">
-        <f>LEN(B737)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K737">
@@ -36171,7 +36172,7 @@
         <v>0</v>
       </c>
       <c r="J738">
-        <f>LEN(B738)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K738">
@@ -36216,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="J739">
-        <f>LEN(B739)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K739">
@@ -36261,7 +36262,7 @@
         <v>0</v>
       </c>
       <c r="J740">
-        <f>LEN(B740)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K740">
@@ -36306,7 +36307,7 @@
         <v>0</v>
       </c>
       <c r="J741">
-        <f>LEN(B741)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K741">
@@ -36351,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="J742">
-        <f>LEN(B742)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K742">
@@ -36396,7 +36397,7 @@
         <v>0</v>
       </c>
       <c r="J743">
-        <f>LEN(B743)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K743">
@@ -36441,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="J744">
-        <f>LEN(B744)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K744">
@@ -36486,7 +36487,7 @@
         <v>0</v>
       </c>
       <c r="J745">
-        <f>LEN(B745)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K745">
@@ -36531,7 +36532,7 @@
         <v>0</v>
       </c>
       <c r="J746">
-        <f>LEN(B746)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K746">
@@ -36576,7 +36577,7 @@
         <v>0</v>
       </c>
       <c r="J747">
-        <f>LEN(B747)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K747">
@@ -36621,7 +36622,7 @@
         <v>0</v>
       </c>
       <c r="J748">
-        <f>LEN(B748)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K748">
@@ -36666,7 +36667,7 @@
         <v>0</v>
       </c>
       <c r="J749">
-        <f>LEN(B749)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K749">
@@ -36711,7 +36712,7 @@
         <v>0</v>
       </c>
       <c r="J750">
-        <f>LEN(B750)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K750">
@@ -36756,7 +36757,7 @@
         <v>0</v>
       </c>
       <c r="J751">
-        <f>LEN(B751)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K751">
@@ -36801,7 +36802,7 @@
         <v>0</v>
       </c>
       <c r="J752">
-        <f>LEN(B752)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K752">
@@ -36846,7 +36847,7 @@
         <v>0</v>
       </c>
       <c r="J753">
-        <f>LEN(B753)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K753">
@@ -36891,7 +36892,7 @@
         <v>0</v>
       </c>
       <c r="J754">
-        <f>LEN(B754)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K754">
@@ -36936,7 +36937,7 @@
         <v>0</v>
       </c>
       <c r="J755">
-        <f>LEN(B755)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K755">
@@ -36981,7 +36982,7 @@
         <v>0</v>
       </c>
       <c r="J756">
-        <f>LEN(B756)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="K756">
@@ -37026,7 +37027,7 @@
         <v>0</v>
       </c>
       <c r="J757">
-        <f>LEN(B757)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K757">
@@ -37071,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="J758">
-        <f>LEN(B758)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="K758">
@@ -37116,7 +37117,7 @@
         <v>0</v>
       </c>
       <c r="J759">
-        <f>LEN(B759)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="K759">
@@ -37161,7 +37162,7 @@
         <v>0</v>
       </c>
       <c r="J760">
-        <f>LEN(B760)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K760">
@@ -37206,7 +37207,7 @@
         <v>0</v>
       </c>
       <c r="J761">
-        <f>LEN(B761)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K761">
@@ -37251,7 +37252,7 @@
         <v>0</v>
       </c>
       <c r="J762">
-        <f>LEN(B762)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="K762">
@@ -37296,7 +37297,7 @@
         <v>0</v>
       </c>
       <c r="J763">
-        <f>LEN(B763)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="K763">
@@ -37341,7 +37342,7 @@
         <v>0</v>
       </c>
       <c r="J764">
-        <f>LEN(B764)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="K764">
@@ -37386,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="J765">
-        <f>LEN(B765)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K765">
@@ -37431,7 +37432,7 @@
         <v>0</v>
       </c>
       <c r="J766">
-        <f>LEN(B766)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K766">
@@ -37476,7 +37477,7 @@
         <v>0</v>
       </c>
       <c r="J767">
-        <f>LEN(B767)</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K767">
@@ -37521,7 +37522,7 @@
         <v>0</v>
       </c>
       <c r="J768">
-        <f>LEN(B768)</f>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="K768">
@@ -37566,7 +37567,7 @@
         <v>0</v>
       </c>
       <c r="J769">
-        <f>LEN(B769)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="K769">
@@ -37611,7 +37612,7 @@
         <v>0</v>
       </c>
       <c r="J770">
-        <f>LEN(B770)</f>
+        <f t="shared" ref="J770:J823" si="12">LEN(B770)</f>
         <v>4</v>
       </c>
       <c r="K770">
@@ -37656,7 +37657,7 @@
         <v>0</v>
       </c>
       <c r="J771">
-        <f>LEN(B771)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K771">
@@ -37701,7 +37702,7 @@
         <v>0</v>
       </c>
       <c r="J772">
-        <f>LEN(B772)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K772">
@@ -37746,7 +37747,7 @@
         <v>0</v>
       </c>
       <c r="J773">
-        <f>LEN(B773)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K773">
@@ -37791,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="J774">
-        <f>LEN(B774)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K774">
@@ -37836,7 +37837,7 @@
         <v>0</v>
       </c>
       <c r="J775">
-        <f>LEN(B775)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K775">
@@ -37881,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="J776">
-        <f>LEN(B776)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K776">
@@ -37926,7 +37927,7 @@
         <v>0</v>
       </c>
       <c r="J777">
-        <f>LEN(B777)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K777">
@@ -37971,7 +37972,7 @@
         <v>0</v>
       </c>
       <c r="J778">
-        <f>LEN(B778)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K778">
@@ -38016,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="J779">
-        <f>LEN(B779)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K779">
@@ -38061,7 +38062,7 @@
         <v>0</v>
       </c>
       <c r="J780">
-        <f>LEN(B780)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K780">
@@ -38106,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="J781">
-        <f>LEN(B781)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K781">
@@ -38151,7 +38152,7 @@
         <v>0</v>
       </c>
       <c r="J782">
-        <f>LEN(B782)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K782">
@@ -38196,7 +38197,7 @@
         <v>0</v>
       </c>
       <c r="J783">
-        <f>LEN(B783)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K783">
@@ -38241,7 +38242,7 @@
         <v>0</v>
       </c>
       <c r="J784">
-        <f>LEN(B784)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K784">
@@ -38286,7 +38287,7 @@
         <v>0</v>
       </c>
       <c r="J785">
-        <f>LEN(B785)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K785">
@@ -38331,7 +38332,7 @@
         <v>0</v>
       </c>
       <c r="J786">
-        <f>LEN(B786)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K786">
@@ -38376,7 +38377,7 @@
         <v>0</v>
       </c>
       <c r="J787">
-        <f>LEN(B787)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K787">
@@ -38421,7 +38422,7 @@
         <v>0</v>
       </c>
       <c r="J788">
-        <f>LEN(B788)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K788">
@@ -38466,7 +38467,7 @@
         <v>0</v>
       </c>
       <c r="J789">
-        <f>LEN(B789)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="K789">
@@ -38511,7 +38512,7 @@
         <v>0</v>
       </c>
       <c r="J790">
-        <f>LEN(B790)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K790">
@@ -38556,7 +38557,7 @@
         <v>0</v>
       </c>
       <c r="J791">
-        <f>LEN(B791)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K791">
@@ -38601,7 +38602,7 @@
         <v>0</v>
       </c>
       <c r="J792">
-        <f>LEN(B792)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="K792">
@@ -38646,7 +38647,7 @@
         <v>0</v>
       </c>
       <c r="J793">
-        <f>LEN(B793)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K793">
@@ -38691,7 +38692,7 @@
         <v>0</v>
       </c>
       <c r="J794">
-        <f>LEN(B794)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K794">
@@ -38736,7 +38737,7 @@
         <v>0</v>
       </c>
       <c r="J795">
-        <f>LEN(B795)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K795">
@@ -38781,7 +38782,7 @@
         <v>0</v>
       </c>
       <c r="J796">
-        <f>LEN(B796)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="K796">
@@ -38826,7 +38827,7 @@
         <v>0</v>
       </c>
       <c r="J797">
-        <f>LEN(B797)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K797">
@@ -38871,7 +38872,7 @@
         <v>0</v>
       </c>
       <c r="J798">
-        <f>LEN(B798)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K798">
@@ -38916,7 +38917,7 @@
         <v>0</v>
       </c>
       <c r="J799">
-        <f>LEN(B799)</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="K799">
@@ -38961,7 +38962,7 @@
         <v>0</v>
       </c>
       <c r="J800">
-        <f>LEN(B800)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="K800">
@@ -39006,7 +39007,7 @@
         <v>0</v>
       </c>
       <c r="J801">
-        <f>LEN(B801)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K801">
@@ -39051,7 +39052,7 @@
         <v>0</v>
       </c>
       <c r="J802">
-        <f>LEN(B802)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K802">
@@ -39096,7 +39097,7 @@
         <v>0</v>
       </c>
       <c r="J803">
-        <f>LEN(B803)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K803">
@@ -39141,7 +39142,7 @@
         <v>0</v>
       </c>
       <c r="J804">
-        <f>LEN(B804)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K804">
@@ -39186,7 +39187,7 @@
         <v>0</v>
       </c>
       <c r="J805">
-        <f>LEN(B805)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K805">
@@ -39231,7 +39232,7 @@
         <v>0</v>
       </c>
       <c r="J806">
-        <f>LEN(B806)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K806">
@@ -39276,7 +39277,7 @@
         <v>0</v>
       </c>
       <c r="J807">
-        <f>LEN(B807)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K807">
@@ -39321,7 +39322,7 @@
         <v>0</v>
       </c>
       <c r="J808">
-        <f>LEN(B808)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K808">
@@ -39366,7 +39367,7 @@
         <v>0</v>
       </c>
       <c r="J809">
-        <f>LEN(B809)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K809">
@@ -39411,7 +39412,7 @@
         <v>0</v>
       </c>
       <c r="J810">
-        <f>LEN(B810)</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="K810">
@@ -39456,7 +39457,7 @@
         <v>0</v>
       </c>
       <c r="J811">
-        <f>LEN(B811)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K811">
@@ -39501,7 +39502,7 @@
         <v>0</v>
       </c>
       <c r="J812">
-        <f>LEN(B812)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K812">
@@ -39546,7 +39547,7 @@
         <v>0</v>
       </c>
       <c r="J813">
-        <f>LEN(B813)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K813">
@@ -39591,7 +39592,7 @@
         <v>0</v>
       </c>
       <c r="J814">
-        <f>LEN(B814)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="K814">
@@ -39636,7 +39637,7 @@
         <v>0</v>
       </c>
       <c r="J815">
-        <f>LEN(B815)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K815">
@@ -39681,7 +39682,7 @@
         <v>0</v>
       </c>
       <c r="J816">
-        <f>LEN(B816)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K816">
@@ -39726,7 +39727,7 @@
         <v>0</v>
       </c>
       <c r="J817">
-        <f>LEN(B817)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="K817">
@@ -39771,7 +39772,7 @@
         <v>0</v>
       </c>
       <c r="J818">
-        <f>LEN(B818)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K818">
@@ -39816,7 +39817,7 @@
         <v>0</v>
       </c>
       <c r="J819">
-        <f>LEN(B819)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="K819">
@@ -39861,7 +39862,7 @@
         <v>0</v>
       </c>
       <c r="J820">
-        <f>LEN(B820)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K820">
@@ -39906,7 +39907,7 @@
         <v>0</v>
       </c>
       <c r="J821">
-        <f>LEN(B821)</f>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="K821">
@@ -39951,7 +39952,7 @@
         <v>0</v>
       </c>
       <c r="J822">
-        <f>LEN(B822)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K822">
@@ -39996,7 +39997,7 @@
         <v>0</v>
       </c>
       <c r="J823">
-        <f>LEN(B823)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="K823">
@@ -40014,31 +40015,31 @@
     </row>
     <row r="826" spans="1:14">
       <c r="C826">
-        <f t="shared" ref="C826:I826" si="0">SUM(C2:C823)</f>
+        <f t="shared" ref="C826:I826" si="13">SUM(C2:C823)</f>
         <v>822</v>
       </c>
       <c r="D826">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E826">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>822</v>
       </c>
       <c r="F826">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G826">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H826">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I826">
-        <f t="shared" si="0"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N826">
